--- a/docs/formatted_panel_ols_regression_results.xlsx
+++ b/docs/formatted_panel_ols_regression_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.557***</t>
+          <t>0.568***</t>
         </is>
       </c>
     </row>
@@ -457,7 +457,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-0.104***</t>
+          <t>-0.085***</t>
         </is>
       </c>
     </row>
@@ -471,70 +471,70 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.007***</t>
+          <t>-0.099***</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(0.002)</t>
+          <t>(0.024)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.033***</t>
+          <t>-0.001***</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>(0.004)</t>
+          <t>(0.000)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.141***</t>
+          <t>-0.001</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(0.006)</t>
+          <t>(0.000)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.310***</t>
+          <t>-0.000***</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(0.007)</t>
+          <t>(0.000)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>-0.083***</t>
+          <t>-0.002***</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>(0.025)</t>
+          <t>(0.000)</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>-0.001</t>
+          <t>-0.000***</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>-0.000***</t>
+          <t>-0.014***</t>
         </is>
       </c>
     </row>
@@ -583,68 +583,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>-0.002***</t>
+          <t>-0.000***</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
-        <is>
-          <t>(0.000)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>-0.001***</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>(0.000)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>-0.000***</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>(0.000)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>-0.014***</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>(0.000)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>-0.000***</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
         <is>
           <t>(0.000)</t>
         </is>
